--- a/biology/Virologie/Monsef_Benkirane/Monsef_Benkirane.xlsx
+++ b/biology/Virologie/Monsef_Benkirane/Monsef_Benkirane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monsef Benkirane, né le 24 avril 1968 à Fès, est un virologue moléculaire.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monsef Benkirane naît à Fès[1].
-Depuis 2015 il est à la tête de l’Institut de génétique humaine (IGH), entité du CNRS et de l’Université de Montpellier[2]. Un laboratoire qui emploie 230 personnes pour 22 équipes[3].
-Il est membre de l’European Molecular Biology Organization et de l’American Academy of Microbiology[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsef Benkirane naît à Fès.
+Depuis 2015 il est à la tête de l’Institut de génétique humaine (IGH), entité du CNRS et de l’Université de Montpellier. Un laboratoire qui emploie 230 personnes pour 22 équipes.
+Il est membre de l’European Molecular Biology Organization et de l’American Academy of Microbiology.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules immunitaires qui contiennent un réservoir caché du virus VIH-1 peuvent être identifiées par une molécule de surface appelée CD 32a, découverte dans une étude publiée dans Nature par Monsef Benkirane de l'Université de Montpellier, France, et des collègues d'autres instituts de recherche français[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules immunitaires qui contiennent un réservoir caché du virus VIH-1 peuvent être identifiées par une molécule de surface appelée CD 32a, découverte dans une étude publiée dans Nature par Monsef Benkirane de l'Université de Montpellier, France, et des collègues d'autres instituts de recherche français.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1996: NIH research excellence award
 2003: Prix HFSP Jeune investigateur
@@ -585,7 +603,7 @@
 2012: Prix Jaffé de l’Académie des Sciences
 2013: Prix « Retrovirology 2013 »
 2013: Elu membre de American Academy of Microbiology
-2013: Prix Liliane-Bettencourt pour les sciences du vivant[5]
+2013: Prix Liliane-Bettencourt pour les sciences du vivant
 2014: Médaille d’argent CNRS
 2017: Prix Jacques PIRAUD FRM
 2017: Prix Georges Frêche
